--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1783275.880638781</v>
+        <v>1785036.410941566</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>163.0178325771093</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>46.42246812243161</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>11.92708979827366</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>174.5850510879344</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.4741679217957</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -949,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>95.815141637642</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>19.49905836424245</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>32.23168924578677</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>38.18739105194257</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>104.2590660175767</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722639</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444119</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.88641949135638</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.7518808581205</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>136.4207955213695</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>60.25690685266638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>40.96105405076475</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,16 +3246,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>146.4649598217087</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>26.70391688093298</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>106.1949878935058</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053464</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1853.982617026597</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C2" t="n">
-        <v>1485.020100086185</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2240.582457090719</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>934.7250629667022</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.493512032386</v>
+        <v>1638.191681214137</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.809023826499</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="W4" t="n">
-        <v>1082.809023826499</v>
+        <v>1383.50719300825</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>934.7250629667022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4585,10 +4585,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605072</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2489.080739605072</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,37 +4649,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1042.179465010819</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>873.2432820829119</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>723.1266426705762</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>575.2135490881831</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>428.3236015902727</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>260.6207649649916</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W7" t="n">
-        <v>1672.610059882606</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X7" t="n">
-        <v>1444.620508984588</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1223.827929841058</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2038.144201386632</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1669.18168444622</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1310.91598583947</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>925.1277332412255</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>514.141828451618</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>99.0693782966145</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>99.0693782966145</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1821.982360191951</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1600.215744761477</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168594</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362668</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488568</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606608</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>733.776543148325</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>585.8634495659319</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680215</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>271.7774027829014</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>130.0655716250996</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603202</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397315</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360355</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462337</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318807</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1089.575996120535</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C22" t="n">
-        <v>920.6398131926278</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D22" t="n">
-        <v>770.523173780292</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>622.6100801978989</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235169</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2264.108249235169</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2009.423761029282</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1720.006590992322</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1492.017040094304</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1271.224460950774</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797191</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,28 +6214,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.95525898292</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>889.0190760550126</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>738.9024366426769</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>590.9893430602838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>444.0993955623734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>276.9032962772533</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>135.1914651194514</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1688.385853854707</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1460.396302956689</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1239.603723813159</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6928,31 +6928,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836018</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556949</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>415.5933575433592</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>267.680263960966</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>120.7903164630557</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>450.3671302240731</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>283.171030938953</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-3.84283301942238e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.875832822406664e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>45.37941682720913</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.000252501561761</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.30478226780077</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.8202214113359</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>34.09972495271808</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194191</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970277</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881101.3618970278</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881101.3618970277</v>
+        <v>881101.3618970276</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881101.3618970276</v>
+        <v>881101.3618970277</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="G2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="G2" t="n">
-        <v>544823.9547907539</v>
-      </c>
       <c r="H2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.351475972692125e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820629</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820633</v>
       </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
-      </c>
       <c r="E4" t="n">
-        <v>14216.75207685494</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685505</v>
@@ -26447,7 +26447,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.752076855</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-975879.278478801</v>
+        <v>-975879.2784788009</v>
       </c>
       <c r="C6" t="n">
-        <v>352865.4672487919</v>
+        <v>352865.4672487922</v>
       </c>
       <c r="D6" t="n">
-        <v>352865.4672487917</v>
+        <v>352865.4672487921</v>
       </c>
       <c r="E6" t="n">
-        <v>103724.8318282797</v>
+        <v>104037.4731572008</v>
       </c>
       <c r="F6" t="n">
-        <v>429137.293635635</v>
+        <v>429449.9349645559</v>
       </c>
       <c r="G6" t="n">
-        <v>429137.2936356349</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="H6" t="n">
-        <v>429137.2936356353</v>
+        <v>429449.9349645561</v>
       </c>
       <c r="I6" t="n">
-        <v>429137.293635635</v>
+        <v>429449.9349645558</v>
       </c>
       <c r="J6" t="n">
-        <v>211606.0912383578</v>
+        <v>211918.7325672788</v>
       </c>
       <c r="K6" t="n">
-        <v>429137.2936356351</v>
+        <v>429449.9349645559</v>
       </c>
       <c r="L6" t="n">
-        <v>429137.2936356346</v>
+        <v>429449.934964556</v>
       </c>
       <c r="M6" t="n">
-        <v>344082.2657001227</v>
+        <v>344394.907029044</v>
       </c>
       <c r="N6" t="n">
-        <v>429137.2936356351</v>
+        <v>429449.934964556</v>
       </c>
       <c r="O6" t="n">
-        <v>429137.2936356346</v>
+        <v>429449.934964556</v>
       </c>
       <c r="P6" t="n">
-        <v>429137.2936356351</v>
+        <v>429449.934964556</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>191.6652090435736</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>335.5079019498302</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>155.3197313003542</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>111.6267871176784</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240.2596737416849</v>
+        <v>307.2767095024427</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>48.93987327667878</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>206.2105970247947</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.345240527139154</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>71.00037073623326</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911113</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>85.5099593138652</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,16 +28089,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.088151302912279e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.954364403594976e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.804778548830654e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.689344965865156e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28988,7 +28988,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601591</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802849</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
